--- a/data/study/MF Framing Pilot - Full Recruitment - Panel 2 - 10 Female Control_November 22, 2019_17.34.xlsx
+++ b/data/study/MF Framing Pilot - Full Recruitment - Panel 2 - 10 Female Control_November 22, 2019_17.34.xlsx
@@ -1,12 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manat\OneDrive\Documents\Tim\MIDS\241_Experiments\241_final_project\data\study\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36420ADB-8F3F-41FA-8258-F149A13C97A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-23148" yWindow="4800" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="MF Framing Pilot - Full Recruit" sheetId="1" r:id="rId3"/>
+    <sheet name="MF Framing Pilot - Full Recruit" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -473,65 +490,371 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AE13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AF13" sqref="AF13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,7 +949,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -721,7 +1044,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -816,9 +1139,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>43791.71296296296</v>
+        <v>43791.712962962964</v>
       </c>
       <c r="B4" s="2">
         <v>43791.713541666664</v>
@@ -830,10 +1153,10 @@
         <v>86</v>
       </c>
       <c r="E4" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="F4" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="G4" s="1" t="b">
         <v>1</v>
@@ -845,10 +1168,10 @@
         <v>87</v>
       </c>
       <c r="N4" s="1">
-        <v>33.8229064941406</v>
+        <v>33.822906494140597</v>
       </c>
       <c r="O4" s="1">
-        <v>-84.3535003662109</v>
+        <v>-84.353500366210895</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>88</v>
@@ -863,7 +1186,7 @@
         <v>91</v>
       </c>
       <c r="T4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>92</v>
@@ -884,7 +1207,7 @@
         <v>97</v>
       </c>
       <c r="AB4" s="1">
-        <v>8.46283049E8</v>
+        <v>846283049</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>90</v>
@@ -896,12 +1219,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>43791.71383101852</v>
+        <v>43791.713831018518</v>
       </c>
       <c r="B5" s="2">
-        <v>43791.7153587963</v>
+        <v>43791.715358796297</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>34</v>
@@ -910,25 +1233,25 @@
         <v>100</v>
       </c>
       <c r="E5" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="F5" s="1">
-        <v>131.0</v>
+        <v>131</v>
       </c>
       <c r="G5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H5" s="2">
-        <v>43791.7153587963</v>
+        <v>43791.715358796297</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>101</v>
       </c>
       <c r="N5" s="1">
-        <v>34.6224060058593</v>
+        <v>34.622406005859297</v>
       </c>
       <c r="O5" s="1">
-        <v>-98.3912963867187</v>
+        <v>-98.391296386718693</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>88</v>
@@ -943,7 +1266,7 @@
         <v>91</v>
       </c>
       <c r="T5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>92</v>
@@ -961,7 +1284,7 @@
         <v>96</v>
       </c>
       <c r="AB5" s="1">
-        <v>7.85171672E8</v>
+        <v>785171672</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>102</v>
@@ -973,12 +1296,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>43791.71696759259</v>
+        <v>43791.716967592591</v>
       </c>
       <c r="B6" s="2">
-        <v>43791.71748842593</v>
+        <v>43791.717488425929</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>34</v>
@@ -987,25 +1310,25 @@
         <v>106</v>
       </c>
       <c r="E6" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="F6" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="G6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H6" s="2">
-        <v>43791.7175</v>
+        <v>43791.717499999999</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>107</v>
       </c>
       <c r="N6" s="1">
-        <v>34.0554962158203</v>
+        <v>34.055496215820298</v>
       </c>
       <c r="O6" s="1">
-        <v>-78.9184036254882</v>
+        <v>-78.918403625488196</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>88</v>
@@ -1020,7 +1343,7 @@
         <v>91</v>
       </c>
       <c r="T6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>109</v>
@@ -1041,7 +1364,7 @@
         <v>111</v>
       </c>
       <c r="AB6" s="1">
-        <v>7.63860301E8</v>
+        <v>763860301</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>108</v>
@@ -1053,12 +1376,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43791.717094907406</v>
       </c>
       <c r="B7" s="2">
-        <v>43791.71840277778</v>
+        <v>43791.718402777777</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>34</v>
@@ -1067,25 +1390,25 @@
         <v>113</v>
       </c>
       <c r="E7" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="F7" s="1">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="G7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H7" s="2">
-        <v>43791.71840277778</v>
+        <v>43791.718402777777</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>114</v>
       </c>
       <c r="N7" s="1">
-        <v>30.417007446289</v>
+        <v>30.417007446288999</v>
       </c>
       <c r="O7" s="1">
-        <v>-84.1849975585937</v>
+        <v>-84.184997558593693</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>88</v>
@@ -1100,7 +1423,7 @@
         <v>91</v>
       </c>
       <c r="T7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>109</v>
@@ -1121,7 +1444,7 @@
         <v>117</v>
       </c>
       <c r="AB7" s="1">
-        <v>9.30817144E8</v>
+        <v>930817144</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>115</v>
@@ -1133,9 +1456,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>43791.71729166667</v>
+        <v>43791.717291666668</v>
       </c>
       <c r="B8" s="2">
         <v>43791.7184837963</v>
@@ -1147,25 +1470,25 @@
         <v>119</v>
       </c>
       <c r="E8" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="1">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="G8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H8" s="2">
-        <v>43791.71849537037</v>
+        <v>43791.718495370369</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>120</v>
       </c>
       <c r="N8" s="1">
-        <v>36.213394165039</v>
+        <v>36.213394165038999</v>
       </c>
       <c r="O8" s="1">
-        <v>-86.731101989746</v>
+        <v>-86.731101989745994</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>88</v>
@@ -1180,7 +1503,7 @@
         <v>91</v>
       </c>
       <c r="T8" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>122</v>
@@ -1201,7 +1524,7 @@
         <v>123</v>
       </c>
       <c r="AB8" s="1">
-        <v>7.18565785E8</v>
+        <v>718565785</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>124</v>
@@ -1213,12 +1536,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43791.717465277776</v>
       </c>
       <c r="B9" s="2">
-        <v>43791.71849537037</v>
+        <v>43791.718495370369</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>34</v>
@@ -1227,10 +1550,10 @@
         <v>126</v>
       </c>
       <c r="E9" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="1">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="G9" s="1" t="b">
         <v>1</v>
@@ -1245,7 +1568,7 @@
         <v>29.481201171875</v>
       </c>
       <c r="O9" s="1">
-        <v>-98.3434982299804</v>
+        <v>-98.343498229980398</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>88</v>
@@ -1260,7 +1583,7 @@
         <v>91</v>
       </c>
       <c r="T9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>109</v>
@@ -1281,7 +1604,7 @@
         <v>129</v>
       </c>
       <c r="AB9" s="1">
-        <v>8.27615964E8</v>
+        <v>827615964</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>128</v>
@@ -1293,12 +1616,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>43791.71871527778</v>
+        <v>43791.718715277777</v>
       </c>
       <c r="B10" s="2">
-        <v>43791.71913194445</v>
+        <v>43791.719131944446</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>34</v>
@@ -1307,25 +1630,25 @@
         <v>131</v>
       </c>
       <c r="E10" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="G10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H10" s="2">
-        <v>43791.71913194445</v>
+        <v>43791.719131944446</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>132</v>
       </c>
       <c r="N10" s="1">
-        <v>43.2122955322265</v>
+        <v>43.212295532226499</v>
       </c>
       <c r="O10" s="1">
-        <v>-77.6995010375976</v>
+        <v>-77.699501037597599</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>88</v>
@@ -1340,7 +1663,7 @@
         <v>91</v>
       </c>
       <c r="T10" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>134</v>
@@ -1361,7 +1684,7 @@
         <v>123</v>
       </c>
       <c r="AB10" s="1">
-        <v>8.96665101E8</v>
+        <v>896665101</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>133</v>
@@ -1373,9 +1696,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>43791.71871527778</v>
+        <v>43791.718715277777</v>
       </c>
       <c r="B11" s="2">
         <v>43791.719409722224</v>
@@ -1387,10 +1710,10 @@
         <v>137</v>
       </c>
       <c r="E11" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="F11" s="1">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="G11" s="1" t="b">
         <v>1</v>
@@ -1405,7 +1728,7 @@
         <v>35.62060546875</v>
       </c>
       <c r="O11" s="1">
-        <v>-77.3944015502929</v>
+        <v>-77.394401550292898</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>88</v>
@@ -1420,7 +1743,7 @@
         <v>140</v>
       </c>
       <c r="T11" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>141</v>
@@ -1441,7 +1764,7 @@
         <v>97</v>
       </c>
       <c r="AB11" s="1">
-        <v>5.71048506E8</v>
+        <v>571048506</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>139</v>
@@ -1453,9 +1776,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>43791.71844907408</v>
+        <v>43791.718449074076</v>
       </c>
       <c r="B12" s="2">
         <v>43791.71943287037</v>
@@ -1467,10 +1790,10 @@
         <v>143</v>
       </c>
       <c r="E12" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="F12" s="1">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="G12" s="1" t="b">
         <v>1</v>
@@ -1485,7 +1808,7 @@
         <v>30.0090942382812</v>
       </c>
       <c r="O12" s="1">
-        <v>-94.8746032714843</v>
+        <v>-94.874603271484304</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>88</v>
@@ -1500,7 +1823,7 @@
         <v>91</v>
       </c>
       <c r="T12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>109</v>
@@ -1521,7 +1844,7 @@
         <v>129</v>
       </c>
       <c r="AB12" s="1">
-        <v>9.44065523E8</v>
+        <v>944065523</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>145</v>
@@ -1533,7 +1856,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43791.71603009259</v>
       </c>
@@ -1547,10 +1870,10 @@
         <v>147</v>
       </c>
       <c r="E13" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="F13" s="1">
-        <v>630.0</v>
+        <v>630</v>
       </c>
       <c r="G13" s="1" t="b">
         <v>1</v>
@@ -1580,7 +1903,7 @@
         <v>140</v>
       </c>
       <c r="T13" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>134</v>
@@ -1601,7 +1924,7 @@
         <v>97</v>
       </c>
       <c r="AB13" s="1">
-        <v>3.79690909E8</v>
+        <v>379690909</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>149</v>
@@ -1614,6 +1937,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>